--- a/solutions/aws/cloud/onpremise-to-cloud-migration/presales/requirements-questionnaire.xlsx
+++ b/solutions/aws/cloud/onpremise-to-cloud-migration/presales/requirements-questionnaire.xlsx
@@ -207,10 +207,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>2</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1428750" cy="476250"/>
+    <ext cx="1143000" cy="285750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -218,62 +218,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>12</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1428750" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1905000" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -595,7 +539,7 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1"/>
     <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="60" customHeight="1"/>
+    <row r="3" ht="20" customHeight="1"/>
     <row r="4" ht="30" customHeight="1">
       <c r="B4" s="1" t="inlineStr">
         <is>
@@ -619,7 +563,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 06, 2025</t>
+          <t>November 13, 2025</t>
         </is>
       </c>
     </row>
@@ -638,7 +582,7 @@
     <row r="9">
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Purpose:</t>
+          <t>Customer Name:</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -661,9 +605,9 @@
     </row>
     <row r="11" ht="20" customHeight="1"/>
     <row r="12" ht="10" customHeight="1"/>
-    <row r="13" ht="60" customHeight="1"/>
+    <row r="13" ht="10" customHeight="1"/>
     <row r="14" ht="10" customHeight="1"/>
-    <row r="15" ht="60" customHeight="1"/>
+    <row r="15" ht="40" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -941,7 +885,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="26" customHeight="1">
+    <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
           <t>PROJ-005</t>
@@ -989,7 +933,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="26" customHeight="1">
+    <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
           <t>CURRENT-001</t>
@@ -1037,7 +981,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="26" customHeight="1">
+    <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
           <t>CURRENT-002</t>
@@ -1087,7 +1031,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="26" customHeight="1">
+    <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
           <t>CURRENT-003</t>
@@ -1135,7 +1079,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="26" customHeight="1">
+    <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
           <t>CURRENT-004</t>
@@ -1185,7 +1129,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="26" customHeight="1">
+    <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
           <t>CURRENT-005</t>
@@ -1235,7 +1179,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="26" customHeight="1">
+    <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
           <t>CURRENT-006</t>
@@ -1285,7 +1229,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="26" customHeight="1">
+    <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
           <t>CURRENT-007</t>
@@ -1333,7 +1277,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="26" customHeight="1">
+    <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
           <t>CURRENT-008</t>
@@ -1383,7 +1327,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="26" customHeight="1">
+    <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
           <t>CURRENT-009</t>
@@ -1431,7 +1375,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="26" customHeight="1">
+    <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
           <t>CURRENT-010</t>
@@ -1479,7 +1423,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="26" customHeight="1">
+    <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
           <t>MIGRATION-001</t>
@@ -1529,7 +1473,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="26" customHeight="1">
+    <row r="18">
       <c r="A18" s="6" t="inlineStr">
         <is>
           <t>MIGRATION-002</t>
@@ -1579,7 +1523,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="26" customHeight="1">
+    <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
           <t>MIGRATION-003</t>
@@ -1629,7 +1573,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="26" customHeight="1">
+    <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
           <t>MIGRATION-004</t>
@@ -1679,7 +1623,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="26" customHeight="1">
+    <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
           <t>MIGRATION-005</t>
@@ -1729,7 +1673,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="26" customHeight="1">
+    <row r="22">
       <c r="A22" s="6" t="inlineStr">
         <is>
           <t>MIGRATION-006</t>
@@ -1779,7 +1723,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="26" customHeight="1">
+    <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
           <t>CLOUD-001</t>
@@ -1829,7 +1773,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="26" customHeight="1">
+    <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
           <t>CLOUD-002</t>
@@ -1879,7 +1823,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="26" customHeight="1">
+    <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
           <t>CLOUD-003</t>
@@ -1929,7 +1873,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="26" customHeight="1">
+    <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
           <t>CLOUD-004</t>
@@ -1979,7 +1923,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="26" customHeight="1">
+    <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
           <t>CLOUD-005</t>
@@ -2029,7 +1973,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="26" customHeight="1">
+    <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
           <t>SECURITY-001</t>
@@ -2077,7 +2021,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="26" customHeight="1">
+    <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
           <t>SECURITY-002</t>
@@ -2127,7 +2071,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="26" customHeight="1">
+    <row r="30">
       <c r="A30" s="6" t="inlineStr">
         <is>
           <t>SECURITY-003</t>
@@ -2177,7 +2121,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="26" customHeight="1">
+    <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
           <t>SECURITY-004</t>
@@ -2227,7 +2171,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="26" customHeight="1">
+    <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
           <t>SECURITY-005</t>
@@ -2275,7 +2219,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="26" customHeight="1">
+    <row r="33">
       <c r="A33" s="7" t="inlineStr">
         <is>
           <t>BUSINESS-001</t>
@@ -2325,7 +2269,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="26" customHeight="1">
+    <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
           <t>BUSINESS-002</t>
@@ -2373,7 +2317,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="26" customHeight="1">
+    <row r="35">
       <c r="A35" s="7" t="inlineStr">
         <is>
           <t>BUSINESS-003</t>
@@ -2423,7 +2367,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="26" customHeight="1">
+    <row r="36">
       <c r="A36" s="6" t="inlineStr">
         <is>
           <t>BUSINESS-004</t>
@@ -2471,7 +2415,7 @@
         </is>
       </c>
     </row>
-    <row r="37" ht="26" customHeight="1">
+    <row r="37">
       <c r="A37" s="7" t="inlineStr">
         <is>
           <t>BUSINESS-005</t>
@@ -2521,7 +2465,7 @@
         </is>
       </c>
     </row>
-    <row r="38" ht="26" customHeight="1">
+    <row r="38">
       <c r="A38" s="6" t="inlineStr">
         <is>
           <t>TECHNICAL-001</t>
@@ -2569,7 +2513,7 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="26" customHeight="1">
+    <row r="39">
       <c r="A39" s="7" t="inlineStr">
         <is>
           <t>TECHNICAL-002</t>
@@ -2617,7 +2561,7 @@
         </is>
       </c>
     </row>
-    <row r="40" ht="26" customHeight="1">
+    <row r="40">
       <c r="A40" s="6" t="inlineStr">
         <is>
           <t>TECHNICAL-003</t>
@@ -2665,7 +2609,7 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="26" customHeight="1">
+    <row r="41">
       <c r="A41" s="7" t="inlineStr">
         <is>
           <t>TECHNICAL-004</t>
@@ -2713,7 +2657,7 @@
         </is>
       </c>
     </row>
-    <row r="42" ht="26" customHeight="1">
+    <row r="42">
       <c r="A42" s="6" t="inlineStr">
         <is>
           <t>TECHNICAL-005</t>
@@ -2761,7 +2705,7 @@
         </is>
       </c>
     </row>
-    <row r="43" ht="26" customHeight="1">
+    <row r="43">
       <c r="A43" s="7" t="inlineStr">
         <is>
           <t>ORGANIZATIONAL-001</t>
@@ -2809,7 +2753,7 @@
         </is>
       </c>
     </row>
-    <row r="44" ht="26" customHeight="1">
+    <row r="44">
       <c r="A44" s="6" t="inlineStr">
         <is>
           <t>ORGANIZATIONAL-002</t>
@@ -2859,7 +2803,7 @@
         </is>
       </c>
     </row>
-    <row r="45" ht="26" customHeight="1">
+    <row r="45">
       <c r="A45" s="7" t="inlineStr">
         <is>
           <t>ORGANIZATIONAL-003</t>
@@ -2907,7 +2851,7 @@
         </is>
       </c>
     </row>
-    <row r="46" ht="26" customHeight="1">
+    <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
           <t>ORGANIZATIONAL-004</t>
@@ -2955,7 +2899,7 @@
         </is>
       </c>
     </row>
-    <row r="47" ht="26" customHeight="1">
+    <row r="47">
       <c r="A47" s="7" t="inlineStr">
         <is>
           <t>ORGANIZATIONAL-005</t>
@@ -3005,7 +2949,7 @@
         </is>
       </c>
     </row>
-    <row r="48" ht="26" customHeight="1">
+    <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
           <t>RISK-001</t>
@@ -3053,7 +2997,7 @@
         </is>
       </c>
     </row>
-    <row r="49" ht="26" customHeight="1">
+    <row r="49">
       <c r="A49" s="7" t="inlineStr">
         <is>
           <t>RISK-002</t>
@@ -3101,7 +3045,7 @@
         </is>
       </c>
     </row>
-    <row r="50" ht="26" customHeight="1">
+    <row r="50">
       <c r="A50" s="6" t="inlineStr">
         <is>
           <t>RISK-003</t>
@@ -3149,7 +3093,7 @@
         </is>
       </c>
     </row>
-    <row r="51" ht="26" customHeight="1">
+    <row r="51">
       <c r="A51" s="7" t="inlineStr">
         <is>
           <t>RISK-004</t>
@@ -3197,7 +3141,7 @@
         </is>
       </c>
     </row>
-    <row r="52" ht="26" customHeight="1">
+    <row r="52">
       <c r="A52" s="6" t="inlineStr">
         <is>
           <t>RISK-005</t>
@@ -3245,7 +3189,7 @@
         </is>
       </c>
     </row>
-    <row r="53" ht="26" customHeight="1">
+    <row r="53">
       <c r="A53" s="7" t="inlineStr">
         <is>
           <t>CONSTRAINTS-001</t>
@@ -3295,7 +3239,7 @@
         </is>
       </c>
     </row>
-    <row r="54" ht="26" customHeight="1">
+    <row r="54">
       <c r="A54" s="6" t="inlineStr">
         <is>
           <t>CONSTRAINTS-002</t>
@@ -3343,7 +3287,7 @@
         </is>
       </c>
     </row>
-    <row r="55" ht="26" customHeight="1">
+    <row r="55">
       <c r="A55" s="7" t="inlineStr">
         <is>
           <t>CONSTRAINTS-003</t>
@@ -3391,7 +3335,7 @@
         </is>
       </c>
     </row>
-    <row r="56" ht="26" customHeight="1">
+    <row r="56">
       <c r="A56" s="6" t="inlineStr">
         <is>
           <t>CONSTRAINTS-004</t>
@@ -3439,7 +3383,7 @@
         </is>
       </c>
     </row>
-    <row r="57" ht="26" customHeight="1">
+    <row r="57">
       <c r="A57" s="7" t="inlineStr">
         <is>
           <t>CONSTRAINTS-005</t>
@@ -3487,7 +3431,7 @@
         </is>
       </c>
     </row>
-    <row r="58" ht="26" customHeight="1">
+    <row r="58">
       <c r="A58" s="6" t="inlineStr">
         <is>
           <t>FUTURE-001</t>
@@ -3535,7 +3479,7 @@
         </is>
       </c>
     </row>
-    <row r="59" ht="26" customHeight="1">
+    <row r="59">
       <c r="A59" s="7" t="inlineStr">
         <is>
           <t>FUTURE-002</t>
@@ -3583,7 +3527,7 @@
         </is>
       </c>
     </row>
-    <row r="60" ht="26" customHeight="1">
+    <row r="60">
       <c r="A60" s="6" t="inlineStr">
         <is>
           <t>FUTURE-003</t>
@@ -3631,7 +3575,7 @@
         </is>
       </c>
     </row>
-    <row r="61" ht="26" customHeight="1">
+    <row r="61">
       <c r="A61" s="7" t="inlineStr">
         <is>
           <t>FUTURE-004</t>
